--- a/detectors/sipm/S15639-25um-Silicon.xlsx
+++ b/detectors/sipm/S15639-25um-Silicon.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="pde_curve">Sheet1!$M$2:$N$67</definedName>
-    <definedName name="relative_crosstalk">Sheet1!$D$2:$E$50</definedName>
-    <definedName name="relative_dcr">Sheet1!$J$2:$K$8</definedName>
-    <definedName name="relative_gain">Sheet1!$G$2:$H$47</definedName>
-    <definedName name="relative_pde">Sheet1!$A$2:$B$64</definedName>
+    <definedName name="pde_curve">Sheet1!$M$2:$N$72</definedName>
+    <definedName name="relative_crosstalk">Sheet1!$D$2:$E$15</definedName>
+    <definedName name="relative_dcr">Sheet1!$J$2:$K$12</definedName>
+    <definedName name="relative_gain">Sheet1!$G$2:$H$155</definedName>
+    <definedName name="relative_pde">Sheet1!$A$2:$B$17</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -389,17 +389,17 @@
   <dimension ref="A1:O155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" customWidth="1"/>
-    <col min="5" max="5" width="16.54296875" customWidth="1"/>
-    <col min="8" max="8" width="12.54296875" customWidth="1"/>
-    <col min="10" max="10" width="13.26953125" customWidth="1"/>
-    <col min="11" max="11" width="13.1796875" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18" style="14" customWidth="1"/>
   </cols>
@@ -453,7 +453,7 @@
         <v>0.100456</v>
       </c>
       <c r="H2" s="11">
-        <v>0.34052259690167397</v>
+        <v>5.6055884109183418E-3</v>
       </c>
       <c r="J2" s="12">
         <v>10</v>
@@ -486,7 +486,7 @@
         <v>0.200909</v>
       </c>
       <c r="H3" s="11">
-        <v>0.35453647592032678</v>
+        <v>8.6288271044473348E-3</v>
       </c>
       <c r="J3" s="12">
         <v>11</v>
@@ -520,7 +520,7 @@
         <v>0.29913800000000001</v>
       </c>
       <c r="H4" s="11">
-        <v>0.36731341358592673</v>
+        <v>1.5683050722681651E-2</v>
       </c>
       <c r="J4" s="12">
         <v>12</v>
@@ -554,7 +554,7 @@
         <v>0.39959699999999998</v>
       </c>
       <c r="H5" s="11">
-        <v>0.38112110685909517</v>
+        <v>2.2233401225327805E-2</v>
       </c>
       <c r="J5" s="12">
         <v>13</v>
@@ -588,7 +588,7 @@
         <v>0.50005900000000003</v>
       </c>
       <c r="H6" s="11">
-        <v>0.39616565492538969</v>
+        <v>2.9539615933078668E-2</v>
       </c>
       <c r="J6" s="12">
         <v>14</v>
@@ -622,7 +622,7 @@
         <v>0.60051900000000002</v>
       </c>
       <c r="H7" s="11">
-        <v>0.41017944738411571</v>
+        <v>3.6341902993518908E-2</v>
       </c>
       <c r="J7" s="12">
         <v>15</v>
@@ -656,7 +656,7 @@
         <v>0.70097900000000002</v>
       </c>
       <c r="H8" s="11">
-        <v>0.42481171051936822</v>
+        <v>4.3144190053959142E-2</v>
       </c>
       <c r="J8" s="12">
         <v>16</v>
@@ -690,7 +690,7 @@
         <v>0.79920800000000003</v>
       </c>
       <c r="H9" s="11">
-        <v>0.43697026406836853</v>
+        <v>4.9946477114399375E-2</v>
       </c>
       <c r="J9">
         <v>17</v>
@@ -724,7 +724,7 @@
         <v>0.89966800000000002</v>
       </c>
       <c r="H10" s="11">
-        <v>0.4538699644844621</v>
+        <v>5.6496827617045532E-2</v>
       </c>
       <c r="J10">
         <v>18</v>
@@ -758,7 +758,7 @@
         <v>1.00013</v>
       </c>
       <c r="H11" s="11">
-        <v>0.46582241884790465</v>
+        <v>6.3551051235279848E-2</v>
       </c>
       <c r="J11">
         <v>19</v>
@@ -792,7 +792,7 @@
         <v>1.10059</v>
       </c>
       <c r="H12" s="11">
-        <v>0.48107297953983008</v>
+        <v>6.9597528622337826E-2</v>
       </c>
       <c r="J12">
         <v>20</v>
@@ -826,7 +826,7 @@
         <v>1.20105</v>
       </c>
       <c r="H13" s="11">
-        <v>0.49694209746820872</v>
+        <v>7.6651752240572149E-2</v>
       </c>
       <c r="L13" s="11"/>
       <c r="M13" s="14">
@@ -854,7 +854,7 @@
         <v>1.29928</v>
       </c>
       <c r="H14" s="11">
-        <v>0.51136817485797681</v>
+        <v>8.3706030390528943E-2</v>
       </c>
       <c r="L14" s="11"/>
       <c r="M14" s="14">
@@ -882,7 +882,7 @@
         <v>1.39974</v>
       </c>
       <c r="H15" s="11">
-        <v>0.52208377442829323</v>
+        <v>9.0256380893175087E-2</v>
       </c>
       <c r="L15" s="11"/>
       <c r="M15" s="14">
@@ -906,7 +906,7 @@
         <v>1.5002</v>
       </c>
       <c r="H16" s="11">
-        <v>0.53960194552091334</v>
+        <v>9.6806731395821244E-2</v>
       </c>
       <c r="L16" s="11"/>
       <c r="M16" s="14">
@@ -930,7 +930,7 @@
         <v>1.60066</v>
       </c>
       <c r="H17" s="11">
-        <v>0.55444030784172338</v>
+        <v>0.10411289157184964</v>
       </c>
       <c r="L17" s="11"/>
       <c r="M17" s="14">
@@ -950,7 +950,7 @@
         <v>1.70112</v>
       </c>
       <c r="H18" s="11">
-        <v>0.5841169459234169</v>
+        <v>0.10990743240111354</v>
       </c>
       <c r="L18" s="11"/>
       <c r="M18" s="14">
@@ -970,7 +970,7 @@
         <v>1.79935</v>
       </c>
       <c r="H19" s="11">
-        <v>0.59895530824422705</v>
+        <v>0.11721359257714195</v>
       </c>
       <c r="L19" s="11"/>
       <c r="M19" s="14">
@@ -990,7 +990,7 @@
         <v>1.8997999999999999</v>
       </c>
       <c r="H20" s="11">
-        <v>0.61276300151739549</v>
+        <v>0.12351200652199401</v>
       </c>
       <c r="L20" s="11"/>
       <c r="M20" s="14">
@@ -1010,7 +1010,7 @@
         <v>2.00027</v>
       </c>
       <c r="H21" s="11">
-        <v>0.6302810860500887</v>
+        <v>0.13056623014022833</v>
       </c>
       <c r="L21" s="11"/>
       <c r="M21" s="14">
@@ -1030,7 +1030,7 @@
         <v>2.10073</v>
       </c>
       <c r="H22" s="11">
-        <v>0.64161515629693167</v>
+        <v>0.13711663517459693</v>
       </c>
       <c r="L22" s="11"/>
       <c r="M22" s="14">
@@ -1050,7 +1050,7 @@
         <v>2.20119</v>
       </c>
       <c r="H23" s="11">
-        <v>0.65872095589858293</v>
+        <v>0.14391892223503716</v>
       </c>
       <c r="L23" s="11"/>
       <c r="M23" s="14">
@@ -1070,7 +1070,7 @@
         <v>2.29941</v>
       </c>
       <c r="H24" s="11">
-        <v>0.66943664202882625</v>
+        <v>0.15046927273768332</v>
       </c>
       <c r="L24" s="11"/>
       <c r="M24" s="14">
@@ -1090,7 +1090,7 @@
         <v>2.3998699999999999</v>
       </c>
       <c r="H25" s="11">
-        <v>0.68427500434963628</v>
+        <v>0.15777543291371171</v>
       </c>
       <c r="L25" s="11"/>
       <c r="M25" s="14">
@@ -1110,7 +1110,7 @@
         <v>2.5003299999999999</v>
       </c>
       <c r="H26" s="11">
-        <v>0.69808269762280473</v>
+        <v>0.1640738468585638</v>
       </c>
       <c r="L26" s="11"/>
       <c r="M26" s="14">
@@ -1130,7 +1130,7 @@
         <v>2.6007899999999999</v>
       </c>
       <c r="H27" s="11">
-        <v>0.72775933570449824</v>
+        <v>0.17087613391900403</v>
       </c>
       <c r="L27" s="11"/>
       <c r="M27" s="14">
@@ -1150,7 +1150,7 @@
         <v>2.7012499999999999</v>
       </c>
       <c r="H28" s="11">
-        <v>0.74177312816322427</v>
+        <v>0.17767842097944425</v>
       </c>
       <c r="L28" s="11"/>
       <c r="M28" s="14">
@@ -1170,7 +1170,7 @@
         <v>2.79948</v>
       </c>
       <c r="H29" s="11">
-        <v>0.75867291513924462</v>
+        <v>0.18473264459767857</v>
       </c>
       <c r="L29" s="11"/>
       <c r="M29" s="14">
@@ -1190,7 +1190,7 @@
         <v>2.89994</v>
       </c>
       <c r="H30" s="11">
-        <v>0.77144993936477124</v>
+        <v>0.19103111307425313</v>
       </c>
       <c r="L30" s="11"/>
       <c r="M30" s="14">
@@ -1210,7 +1210,7 @@
         <v>3.0004</v>
       </c>
       <c r="H31" s="11">
-        <v>0.78443306277585567</v>
+        <v>0.19783340013469336</v>
       </c>
       <c r="L31" s="11"/>
       <c r="M31" s="14">
@@ -1230,7 +1230,7 @@
         <v>3.1008599999999999</v>
       </c>
       <c r="H32" s="11">
-        <v>0.79927133853673904</v>
+        <v>0.20488762375292768</v>
       </c>
       <c r="L32" s="11"/>
       <c r="M32" s="14">
@@ -1250,7 +1250,7 @@
         <v>3.2013199999999999</v>
       </c>
       <c r="H33" s="11">
-        <v>0.81410970085754919</v>
+        <v>0.21118603769777974</v>
       </c>
       <c r="L33" s="11"/>
       <c r="M33" s="14">
@@ -1270,7 +1270,7 @@
         <v>3.29955</v>
       </c>
       <c r="H34" s="11">
-        <v>0.82750510919967557</v>
+        <v>0.2164767054114555</v>
       </c>
       <c r="L34" s="11"/>
       <c r="M34" s="14">
@@ -1290,7 +1290,7 @@
         <v>3.40001</v>
       </c>
       <c r="H35" s="11">
-        <v>0.84399261124465386</v>
+        <v>0.22327899247189573</v>
       </c>
       <c r="L35" s="11"/>
       <c r="M35" s="14">
@@ -1310,7 +1310,7 @@
         <v>3.50047</v>
       </c>
       <c r="H36" s="11">
-        <v>0.86460270292027219</v>
+        <v>0.23008127953233595</v>
       </c>
       <c r="L36" s="11"/>
       <c r="M36" s="14">
@@ -1330,7 +1330,7 @@
         <v>3.60093</v>
       </c>
       <c r="H37" s="11">
-        <v>0.86934038739029607</v>
+        <v>0.23688356659277621</v>
       </c>
       <c r="L37" s="11"/>
       <c r="M37" s="14">
@@ -1350,7 +1350,7 @@
         <v>3.70139</v>
       </c>
       <c r="H38" s="11">
-        <v>0.88541543138437884</v>
+        <v>0.24318198053762827</v>
       </c>
       <c r="L38" s="11"/>
       <c r="M38" s="14">
@@ -1370,7 +1370,7 @@
         <v>3.79962</v>
       </c>
       <c r="H39" s="11">
-        <v>0.8994294835228851</v>
+        <v>0.25023625868758503</v>
       </c>
       <c r="L39" s="11"/>
       <c r="M39" s="14">
@@ -1390,7 +1390,7 @@
         <v>3.90008</v>
       </c>
       <c r="H40" s="11">
-        <v>0.91426758616391512</v>
+        <v>0.25729048230581936</v>
       </c>
       <c r="L40" s="11"/>
       <c r="M40" s="14">
@@ -1410,7 +1410,7 @@
         <v>4.70153</v>
       </c>
       <c r="H41" s="11">
-        <v>0.9284876509280523</v>
+        <v>0.31095302364768146</v>
       </c>
       <c r="L41" s="11"/>
       <c r="M41" s="14">
@@ -1430,7 +1430,7 @@
         <v>4.79976</v>
       </c>
       <c r="H42" s="11">
-        <v>0.94208881221602936</v>
+        <v>0.31750337415032759</v>
       </c>
       <c r="L42" s="11"/>
       <c r="M42" s="14">
@@ -1450,7 +1450,7 @@
         <v>4.90022</v>
       </c>
       <c r="H43" s="11">
-        <v>0.9581647218093795</v>
+        <v>0.32430566121076781</v>
       </c>
       <c r="L43" s="11"/>
       <c r="M43" s="14">
@@ -1470,7 +1470,7 @@
         <v>5.00068</v>
       </c>
       <c r="H44" s="11">
-        <v>0.97073495436993462</v>
+        <v>0.330856011713414</v>
       </c>
       <c r="L44" s="11"/>
       <c r="M44" s="14">
@@ -1490,7 +1490,7 @@
         <v>5.10114</v>
       </c>
       <c r="H45" s="11">
-        <v>0.98516103175970271</v>
+        <v>0.33765829877385423</v>
       </c>
       <c r="L45" s="11"/>
       <c r="M45" s="14">
@@ -1510,7 +1510,7 @@
         <v>5.1993600000000004</v>
       </c>
       <c r="H46" s="11">
-        <v>1</v>
+        <v>0.34446058583429445</v>
       </c>
       <c r="L46" s="11"/>
       <c r="M46" s="14">
@@ -1530,7 +1530,7 @@
         <v>5.2998200000000004</v>
       </c>
       <c r="H47" s="11">
-        <v>1.0150441152666609</v>
+        <v>0.35101093633694058</v>
       </c>
       <c r="L47" s="11"/>
       <c r="M47" s="14">
@@ -1549,7 +1549,9 @@
       <c r="G48" s="4">
         <v>5.4002800000000004</v>
       </c>
-      <c r="H48" s="5"/>
+      <c r="H48" s="5">
+        <v>0.35781327792910328</v>
+      </c>
       <c r="L48" s="11"/>
       <c r="M48" s="14">
         <v>860</v>
@@ -1567,7 +1569,9 @@
       <c r="G49" s="4">
         <v>5.5007400000000004</v>
       </c>
-      <c r="H49" s="5"/>
+      <c r="H49" s="5">
+        <v>0.36436362843174941</v>
+      </c>
       <c r="L49" s="11"/>
       <c r="M49" s="14">
         <v>870</v>
@@ -1585,7 +1589,9 @@
       <c r="G50" s="4">
         <v>5.6012000000000004</v>
       </c>
-      <c r="H50" s="5"/>
+      <c r="H50" s="5">
+        <v>0.37091397893439559</v>
+      </c>
       <c r="L50" s="11"/>
       <c r="M50" s="14">
         <v>880</v>
@@ -1603,7 +1609,9 @@
       <c r="G51" s="4">
         <v>5.6994300000000004</v>
       </c>
-      <c r="H51" s="5"/>
+      <c r="H51" s="5">
+        <v>0.37771626599483582</v>
+      </c>
       <c r="L51" s="11"/>
       <c r="M51" s="14">
         <v>890</v>
@@ -1621,7 +1629,9 @@
       <c r="G52" s="4">
         <v>5.7998900000000004</v>
       </c>
-      <c r="H52" s="5"/>
+      <c r="H52" s="5">
+        <v>0.38451855305527605</v>
+      </c>
       <c r="L52" s="11"/>
       <c r="M52" s="14">
         <v>900</v>
@@ -1639,7 +1649,9 @@
       <c r="G53" s="4">
         <v>5.9003500000000004</v>
       </c>
-      <c r="H53" s="5"/>
+      <c r="H53" s="5">
+        <v>0.39157277667351037</v>
+      </c>
       <c r="L53" s="11"/>
       <c r="M53" s="14">
         <v>910</v>
@@ -1657,7 +1669,9 @@
       <c r="G54" s="4">
         <v>6.0008100000000004</v>
       </c>
-      <c r="H54" s="5"/>
+      <c r="H54" s="5">
+        <v>0.3983750637339506</v>
+      </c>
       <c r="L54" s="11"/>
       <c r="M54" s="14">
         <v>920</v>
@@ -1675,7 +1689,9 @@
       <c r="G55" s="4">
         <v>6.1012700000000004</v>
       </c>
-      <c r="H55" s="5"/>
+      <c r="H55" s="5">
+        <v>0.40492541423659678</v>
+      </c>
       <c r="L55" s="11"/>
       <c r="M55" s="14">
         <v>930</v>
@@ -1693,7 +1709,9 @@
       <c r="G56" s="4">
         <v>6.1994999999999996</v>
       </c>
-      <c r="H56" s="5"/>
+      <c r="H56" s="5">
+        <v>0.41097194615537724</v>
+      </c>
       <c r="L56" s="11"/>
       <c r="M56" s="14">
         <v>940</v>
@@ -1711,7 +1729,9 @@
       <c r="G57" s="4">
         <v>6.2999599999999996</v>
       </c>
-      <c r="H57" s="5"/>
+      <c r="H57" s="5">
+        <v>0.41802616977361157</v>
+      </c>
       <c r="L57" s="11"/>
       <c r="M57" s="14">
         <v>950</v>
@@ -1729,7 +1749,9 @@
       <c r="G58" s="4">
         <v>6.4004200000000004</v>
       </c>
-      <c r="H58" s="5"/>
+      <c r="H58" s="5">
+        <v>0.42508039339184589</v>
+      </c>
       <c r="L58" s="11"/>
       <c r="M58" s="14">
         <v>960</v>
@@ -1747,7 +1769,9 @@
       <c r="G59" s="4">
         <v>6.5008800000000004</v>
       </c>
-      <c r="H59" s="5"/>
+      <c r="H59" s="5">
+        <v>0.43213461701008021</v>
+      </c>
       <c r="L59" s="11"/>
       <c r="M59" s="14">
         <v>970</v>
@@ -1765,7 +1789,9 @@
       <c r="G60" s="4">
         <v>6.6013400000000004</v>
       </c>
-      <c r="H60" s="5"/>
+      <c r="H60" s="5">
+        <v>0.4384330309549323</v>
+      </c>
       <c r="L60" s="11"/>
       <c r="M60" s="14">
         <v>980</v>
@@ -1783,7 +1809,9 @@
       <c r="G61" s="4">
         <v>6.6995699999999996</v>
       </c>
-      <c r="H61" s="5"/>
+      <c r="H61" s="5">
+        <v>0.44498338145757843</v>
+      </c>
       <c r="L61" s="11"/>
       <c r="M61" s="14">
         <v>990</v>
@@ -1801,7 +1829,9 @@
       <c r="G62" s="4">
         <v>6.8000299999999996</v>
       </c>
-      <c r="H62" s="5"/>
+      <c r="H62" s="5">
+        <v>0.45203760507581275</v>
+      </c>
       <c r="L62" s="11"/>
       <c r="M62" s="14">
         <v>1000</v>
@@ -1819,7 +1849,9 @@
       <c r="G63" s="4">
         <v>6.9004899999999996</v>
       </c>
-      <c r="H63" s="5"/>
+      <c r="H63" s="5">
+        <v>0.45858795557845888</v>
+      </c>
       <c r="L63" s="11"/>
       <c r="M63" s="14">
         <v>1010</v>
@@ -1837,7 +1869,9 @@
       <c r="G64" s="4">
         <v>7.0009499999999996</v>
       </c>
-      <c r="H64" s="5"/>
+      <c r="H64" s="5">
+        <v>0.46539029717062158</v>
+      </c>
       <c r="L64" s="11"/>
       <c r="M64" s="14">
         <v>1020</v>
@@ -1853,7 +1887,9 @@
       <c r="G65" s="4">
         <v>7.1014099999999996</v>
       </c>
-      <c r="H65" s="5"/>
+      <c r="H65" s="5">
+        <v>0.4724445207888559</v>
+      </c>
       <c r="L65" s="11"/>
       <c r="M65" s="14">
         <v>1030</v>
@@ -1867,7 +1903,9 @@
       <c r="G66" s="4">
         <v>7.1996399999999996</v>
       </c>
-      <c r="H66" s="5"/>
+      <c r="H66" s="5">
+        <v>0.47874293473370799</v>
+      </c>
       <c r="L66" s="11"/>
       <c r="M66" s="14">
         <v>1040</v>
@@ -1881,7 +1919,9 @@
       <c r="G67" s="4">
         <v>7.3000999999999996</v>
       </c>
-      <c r="H67" s="5"/>
+      <c r="H67" s="5">
+        <v>0.48579715835194232</v>
+      </c>
       <c r="L67" s="11"/>
       <c r="M67" s="14">
         <v>1050</v>
@@ -1895,7 +1935,9 @@
       <c r="G68" s="4">
         <v>7.4005599999999996</v>
       </c>
-      <c r="H68" s="5"/>
+      <c r="H68" s="5">
+        <v>0.49184363573900031</v>
+      </c>
       <c r="M68" s="14">
         <v>1060</v>
       </c>
@@ -1907,7 +1949,9 @@
       <c r="G69" s="4">
         <v>7.5010199999999996</v>
       </c>
-      <c r="H69" s="5"/>
+      <c r="H69" s="5">
+        <v>0.49889785935723457</v>
+      </c>
       <c r="M69" s="14">
         <v>1070</v>
       </c>
@@ -1919,7 +1963,9 @@
       <c r="G70" s="4">
         <v>7.6014799999999996</v>
       </c>
-      <c r="H70" s="5"/>
+      <c r="H70" s="5">
+        <v>0.5057001464176748</v>
+      </c>
       <c r="M70" s="14">
         <v>1080</v>
       </c>
@@ -1931,6 +1977,9 @@
       <c r="G71">
         <v>7.6997</v>
       </c>
+      <c r="H71">
+        <v>0.51099081413135061</v>
+      </c>
       <c r="M71" s="14">
         <v>1090</v>
       </c>
@@ -1942,6 +1991,9 @@
       <c r="G72">
         <v>7.80016</v>
       </c>
+      <c r="H72">
+        <v>0.51754116463399669</v>
+      </c>
       <c r="M72" s="14">
         <v>1100</v>
       </c>
@@ -1953,415 +2005,664 @@
       <c r="G73">
         <v>7.9006299999999996</v>
       </c>
+      <c r="H73">
+        <v>0.52434350622615944</v>
+      </c>
     </row>
     <row r="74" spans="4:15">
       <c r="G74">
         <v>8.0010899999999996</v>
       </c>
+      <c r="H74">
+        <v>0.53114579328659961</v>
+      </c>
     </row>
     <row r="75" spans="4:15">
       <c r="G75">
         <v>8.1015499999999996</v>
       </c>
+      <c r="H75">
+        <v>0.53845195346262809</v>
+      </c>
     </row>
     <row r="76" spans="4:15">
       <c r="G76">
         <v>8.1997699999999991</v>
       </c>
+      <c r="H76">
+        <v>0.54475036740748006</v>
+      </c>
     </row>
     <row r="77" spans="4:15">
       <c r="G77">
         <v>8.3002300000000009</v>
       </c>
+      <c r="H77">
+        <v>0.55079711745315041</v>
+      </c>
     </row>
     <row r="78" spans="4:15">
       <c r="G78">
         <v>8.4006900000000009</v>
       </c>
+      <c r="H78">
+        <v>0.55835521418697287</v>
+      </c>
     </row>
     <row r="79" spans="4:15">
       <c r="G79">
         <v>8.5011500000000009</v>
       </c>
+      <c r="H79">
+        <v>0.56465362813182496</v>
+      </c>
     </row>
     <row r="80" spans="4:15">
       <c r="G80">
         <v>8.6016100000000009</v>
       </c>
-    </row>
-    <row r="81" spans="7:7">
+      <c r="H80">
+        <v>0.57145591519226524</v>
+      </c>
+    </row>
+    <row r="81" spans="7:8">
       <c r="G81">
         <v>8.69984</v>
       </c>
-    </row>
-    <row r="82" spans="7:7">
+      <c r="H81">
+        <v>0.57825820225270541</v>
+      </c>
+    </row>
+    <row r="82" spans="7:8">
       <c r="G82">
         <v>8.8003</v>
       </c>
-    </row>
-    <row r="83" spans="7:7">
+      <c r="H82">
+        <v>0.58556436242873389</v>
+      </c>
+    </row>
+    <row r="83" spans="7:8">
       <c r="G83">
         <v>8.90076</v>
       </c>
-    </row>
-    <row r="84" spans="7:7">
+      <c r="H83">
+        <v>0.59161083981579188</v>
+      </c>
+    </row>
+    <row r="84" spans="7:8">
       <c r="G84">
         <v>9.80044</v>
       </c>
-    </row>
-    <row r="85" spans="7:7">
+      <c r="H84">
+        <v>0.65207561368637168</v>
+      </c>
+    </row>
+    <row r="85" spans="7:8">
       <c r="G85">
         <v>9.9009</v>
       </c>
-    </row>
-    <row r="86" spans="7:7">
+      <c r="H85">
+        <v>0.65862596418901787</v>
+      </c>
+    </row>
+    <row r="86" spans="7:8">
       <c r="G86">
         <v>10.0014</v>
       </c>
-    </row>
-    <row r="87" spans="7:7">
+      <c r="H86">
+        <v>0.66542825124945804</v>
+      </c>
+    </row>
+    <row r="87" spans="7:8">
       <c r="G87">
         <v>10.101800000000001</v>
       </c>
-    </row>
-    <row r="88" spans="7:7">
+      <c r="H87">
+        <v>0.67223053830989832</v>
+      </c>
+    </row>
+    <row r="88" spans="7:8">
       <c r="G88">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="89" spans="7:7">
+      <c r="H88">
+        <v>0.6790328253703386</v>
+      </c>
+    </row>
+    <row r="89" spans="7:8">
       <c r="G89">
         <v>10.298299999999999</v>
       </c>
-    </row>
-    <row r="90" spans="7:7">
+      <c r="H89">
+        <v>0.68558317587298467</v>
+      </c>
+    </row>
+    <row r="90" spans="7:8">
       <c r="G90">
         <v>10.3987</v>
       </c>
-    </row>
-    <row r="91" spans="7:7">
+      <c r="H90">
+        <v>0.69263739949121905</v>
+      </c>
+    </row>
+    <row r="91" spans="7:8">
       <c r="G91">
         <v>10.4992</v>
       </c>
-    </row>
-    <row r="92" spans="7:7">
+      <c r="H91">
+        <v>0.69918774999386513</v>
+      </c>
+    </row>
+    <row r="92" spans="7:8">
       <c r="G92">
         <v>10.5997</v>
       </c>
-    </row>
-    <row r="93" spans="7:7">
+      <c r="H92">
+        <v>0.70599003705430541</v>
+      </c>
+    </row>
+    <row r="93" spans="7:8">
       <c r="G93">
         <v>10.700100000000001</v>
       </c>
-    </row>
-    <row r="94" spans="7:7">
+      <c r="H93">
+        <v>0.7122884509991575</v>
+      </c>
+    </row>
+    <row r="94" spans="7:8">
       <c r="G94">
         <v>10.798299999999999</v>
       </c>
-    </row>
-    <row r="95" spans="7:7">
+      <c r="H94">
+        <v>0.71934267461739176</v>
+      </c>
+    </row>
+    <row r="95" spans="7:8">
       <c r="G95">
         <v>11.7003</v>
       </c>
-    </row>
-    <row r="96" spans="7:7">
+      <c r="H95">
+        <v>0.78005938504576577</v>
+      </c>
+    </row>
+    <row r="96" spans="7:8">
       <c r="G96">
         <v>11.798500000000001</v>
       </c>
-    </row>
-    <row r="97" spans="7:7">
+      <c r="H96">
+        <v>0.78535005275944147</v>
+      </c>
+    </row>
+    <row r="97" spans="7:8">
       <c r="G97">
         <v>11.898899999999999</v>
       </c>
-    </row>
-    <row r="98" spans="7:7">
+      <c r="H97">
+        <v>0.79190040326208766</v>
+      </c>
+    </row>
+    <row r="98" spans="7:8">
       <c r="G98">
         <v>11.9994</v>
       </c>
-    </row>
-    <row r="99" spans="7:7">
+      <c r="H98">
+        <v>0.79870269032252783</v>
+      </c>
+    </row>
+    <row r="99" spans="7:8">
       <c r="G99">
         <v>12.0999</v>
       </c>
-    </row>
-    <row r="100" spans="7:7">
+      <c r="H99">
+        <v>0.80575691394076221</v>
+      </c>
+    </row>
+    <row r="100" spans="7:8">
       <c r="G100">
         <v>12.2003</v>
       </c>
-    </row>
-    <row r="101" spans="7:7">
+      <c r="H100">
+        <v>0.81230726444340839</v>
+      </c>
+    </row>
+    <row r="101" spans="7:8">
       <c r="G101">
         <v>12.2986</v>
       </c>
-    </row>
-    <row r="102" spans="7:7">
+      <c r="H101">
+        <v>0.81936148806164266</v>
+      </c>
+    </row>
+    <row r="102" spans="7:8">
       <c r="G102">
         <v>12.398999999999999</v>
       </c>
-    </row>
-    <row r="103" spans="7:7">
+      <c r="H102">
+        <v>0.82490409233311246</v>
+      </c>
+    </row>
+    <row r="103" spans="7:8">
       <c r="G103">
         <v>12.499499999999999</v>
       </c>
-    </row>
-    <row r="104" spans="7:7">
+      <c r="H103">
+        <v>0.83271412562472902</v>
+      </c>
+    </row>
+    <row r="104" spans="7:8">
       <c r="G104">
         <v>12.5999</v>
       </c>
-    </row>
-    <row r="105" spans="7:7">
+      <c r="H104">
+        <v>0.8395164126851693</v>
+      </c>
+    </row>
+    <row r="105" spans="7:8">
       <c r="G105">
         <v>12.7004</v>
       </c>
-    </row>
-    <row r="106" spans="7:7">
+      <c r="H105">
+        <v>0.84581482663002139</v>
+      </c>
+    </row>
+    <row r="106" spans="7:8">
       <c r="G106">
         <v>12.7986</v>
       </c>
-    </row>
-    <row r="107" spans="7:7">
+      <c r="H106">
+        <v>0.85261711369046156</v>
+      </c>
+    </row>
+    <row r="107" spans="7:8">
       <c r="G107">
         <v>13.7988</v>
       </c>
-    </row>
-    <row r="108" spans="7:7">
+      <c r="H107">
+        <v>0.91963223806368755</v>
+      </c>
+    </row>
+    <row r="108" spans="7:8">
       <c r="G108">
         <v>13.8992</v>
       </c>
-    </row>
-    <row r="109" spans="7:7">
+      <c r="H108">
+        <v>0.92618258856633373</v>
+      </c>
+    </row>
+    <row r="109" spans="7:8">
       <c r="G109">
         <v>13.999700000000001</v>
       </c>
-    </row>
-    <row r="110" spans="7:7">
+      <c r="H109">
+        <v>0.93298487562677401</v>
+      </c>
+    </row>
+    <row r="110" spans="7:8">
       <c r="G110">
         <v>14.100099999999999</v>
       </c>
-    </row>
-    <row r="111" spans="7:7">
+      <c r="H110">
+        <v>0.94003909924500828</v>
+      </c>
+    </row>
+    <row r="111" spans="7:8">
       <c r="G111">
         <v>14.2006</v>
       </c>
-    </row>
-    <row r="112" spans="7:7">
+      <c r="H111">
+        <v>0.94658944974765447</v>
+      </c>
+    </row>
+    <row r="112" spans="7:8">
       <c r="G112">
         <v>14.2988</v>
       </c>
-    </row>
-    <row r="113" spans="7:7">
+      <c r="H112">
+        <v>0.95313980025030065</v>
+      </c>
+    </row>
+    <row r="113" spans="7:8">
       <c r="G113">
         <v>14.3993</v>
       </c>
-    </row>
-    <row r="114" spans="7:7">
+      <c r="H113">
+        <v>0.95994208731074082</v>
+      </c>
+    </row>
+    <row r="114" spans="7:8">
       <c r="G114">
         <v>14.499700000000001</v>
       </c>
-    </row>
-    <row r="115" spans="7:7">
+      <c r="H114">
+        <v>0.96649243781338701</v>
+      </c>
+    </row>
+    <row r="115" spans="7:8">
       <c r="G115">
         <v>14.600199999999999</v>
       </c>
-    </row>
-    <row r="116" spans="7:7">
+      <c r="H115">
+        <v>0.97379859798941537</v>
+      </c>
+    </row>
+    <row r="116" spans="7:8">
       <c r="G116">
         <v>14.700699999999999</v>
       </c>
-    </row>
-    <row r="117" spans="7:7">
+      <c r="H116">
+        <v>0.98009701193426746</v>
+      </c>
+    </row>
+    <row r="117" spans="7:8">
       <c r="G117">
         <v>14.7989</v>
       </c>
-    </row>
-    <row r="118" spans="7:7">
+      <c r="H117">
+        <v>0.98715123555250173</v>
+      </c>
+    </row>
+    <row r="118" spans="7:8">
       <c r="G118">
         <v>14.8994</v>
       </c>
-    </row>
-    <row r="119" spans="7:7">
+      <c r="H118">
+        <v>0.99395352261294201</v>
+      </c>
+    </row>
+    <row r="119" spans="7:8">
       <c r="G119">
         <v>14.9998</v>
       </c>
-    </row>
-    <row r="120" spans="7:7">
+      <c r="H119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="7:8">
       <c r="G120">
         <v>15.100300000000001</v>
       </c>
-    </row>
-    <row r="121" spans="7:7">
+      <c r="H120">
+        <v>1.0070542236182343</v>
+      </c>
+    </row>
+    <row r="121" spans="7:8">
       <c r="G121">
         <v>15.798999999999999</v>
       </c>
-    </row>
-    <row r="122" spans="7:7">
+      <c r="H121">
+        <v>1.054670233041316</v>
+      </c>
+    </row>
+    <row r="122" spans="7:8">
       <c r="G122">
         <v>15.8995</v>
       </c>
-    </row>
-    <row r="123" spans="7:7">
+      <c r="H122">
+        <v>1.0609686469861681</v>
+      </c>
+    </row>
+    <row r="123" spans="7:8">
       <c r="G123">
         <v>16</v>
       </c>
-    </row>
-    <row r="124" spans="7:7">
+      <c r="H123">
+        <v>1.0675189974888142</v>
+      </c>
+    </row>
+    <row r="124" spans="7:8">
       <c r="G124">
         <v>16.1004</v>
       </c>
-    </row>
-    <row r="125" spans="7:7">
+      <c r="H124">
+        <v>1.0745732211070484</v>
+      </c>
+    </row>
+    <row r="125" spans="7:8">
       <c r="G125">
         <v>16.198599999999999</v>
       </c>
-    </row>
-    <row r="126" spans="7:7">
+      <c r="H125">
+        <v>1.0801158253785184</v>
+      </c>
+    </row>
+    <row r="126" spans="7:8">
       <c r="G126">
         <v>16.299099999999999</v>
       </c>
-    </row>
-    <row r="127" spans="7:7">
+      <c r="H126">
+        <v>1.0866661758811644</v>
+      </c>
+    </row>
+    <row r="127" spans="7:8">
       <c r="G127">
         <v>16.3996</v>
       </c>
-    </row>
-    <row r="128" spans="7:7">
+      <c r="H127">
+        <v>1.0932170717010352</v>
+      </c>
+    </row>
+    <row r="128" spans="7:8">
       <c r="G128">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="129" spans="7:7">
+      <c r="H128">
+        <v>1.1002712953192697</v>
+      </c>
+    </row>
+    <row r="129" spans="7:8">
       <c r="G129">
         <v>16.6005</v>
       </c>
-    </row>
-    <row r="130" spans="7:7">
+      <c r="H129">
+        <v>1.1068216458219158</v>
+      </c>
+    </row>
+    <row r="130" spans="7:8">
       <c r="G130">
         <v>16.698699999999999</v>
       </c>
-    </row>
-    <row r="131" spans="7:7">
+      <c r="H130">
+        <v>1.1133719963245619</v>
+      </c>
+    </row>
+    <row r="131" spans="7:8">
       <c r="G131">
         <v>16.799199999999999</v>
       </c>
-    </row>
-    <row r="132" spans="7:7">
+      <c r="H131">
+        <v>1.1199223468272081</v>
+      </c>
+    </row>
+    <row r="132" spans="7:8">
       <c r="G132">
         <v>16.8996</v>
       </c>
-    </row>
-    <row r="133" spans="7:7">
+      <c r="H132">
+        <v>1.1269765704454424</v>
+      </c>
+    </row>
+    <row r="133" spans="7:8">
       <c r="G133">
         <v>17.0001</v>
       </c>
-    </row>
-    <row r="134" spans="7:7">
+      <c r="H133">
+        <v>1.1337788575058827</v>
+      </c>
+    </row>
+    <row r="134" spans="7:8">
       <c r="G134">
         <v>17.899799999999999</v>
       </c>
-    </row>
-    <row r="135" spans="7:7">
+      <c r="H134">
+        <v>1.1942436313764624</v>
+      </c>
+    </row>
+    <row r="135" spans="7:8">
       <c r="G135">
         <v>18.0002</v>
       </c>
-    </row>
-    <row r="136" spans="7:7">
+      <c r="H135">
+        <v>1.2005420453213145</v>
+      </c>
+    </row>
+    <row r="136" spans="7:8">
       <c r="G136">
         <v>18.1007</v>
       </c>
-    </row>
-    <row r="137" spans="7:7">
+      <c r="H136">
+        <v>1.2070923958239608</v>
+      </c>
+    </row>
+    <row r="137" spans="7:8">
       <c r="G137">
         <v>18.198899999999998</v>
       </c>
-    </row>
-    <row r="138" spans="7:7">
+      <c r="H137">
+        <v>1.214146619442195</v>
+      </c>
+    </row>
+    <row r="138" spans="7:8">
       <c r="G138">
         <v>18.299399999999999</v>
       </c>
-    </row>
-    <row r="139" spans="7:7">
+      <c r="H138">
+        <v>1.2204450333870471</v>
+      </c>
+    </row>
+    <row r="139" spans="7:8">
       <c r="G139">
         <v>18.399799999999999</v>
       </c>
-    </row>
-    <row r="140" spans="7:7">
+      <c r="H139">
+        <v>1.2277511935630754</v>
+      </c>
+    </row>
+    <row r="140" spans="7:8">
       <c r="G140">
         <v>18.500299999999999</v>
       </c>
-    </row>
-    <row r="141" spans="7:7">
+      <c r="H140">
+        <v>1.2343015440657217</v>
+      </c>
+    </row>
+    <row r="141" spans="7:8">
       <c r="G141">
         <v>18.6008</v>
       </c>
-    </row>
-    <row r="142" spans="7:7">
+      <c r="H141">
+        <v>1.241103831126162</v>
+      </c>
+    </row>
+    <row r="142" spans="7:8">
       <c r="G142">
         <v>18.699000000000002</v>
       </c>
-    </row>
-    <row r="143" spans="7:7">
+      <c r="H142">
+        <v>1.247906118186602</v>
+      </c>
+    </row>
+    <row r="143" spans="7:8">
       <c r="G143">
         <v>18.799399999999999</v>
       </c>
-    </row>
-    <row r="144" spans="7:7">
+      <c r="H143">
+        <v>1.2544564686892483</v>
+      </c>
+    </row>
+    <row r="144" spans="7:8">
       <c r="G144">
         <v>18.899899999999999</v>
       </c>
-    </row>
-    <row r="145" spans="7:7">
+      <c r="H144">
+        <v>1.2612587557496886</v>
+      </c>
+    </row>
+    <row r="145" spans="7:8">
       <c r="G145">
         <v>19.000399999999999</v>
       </c>
-    </row>
-    <row r="146" spans="7:7">
+      <c r="H145">
+        <v>1.2683129793679229</v>
+      </c>
+    </row>
+    <row r="146" spans="7:8">
       <c r="G146">
         <v>19.1008</v>
       </c>
-    </row>
-    <row r="147" spans="7:7">
+      <c r="H146">
+        <v>1.2748633298705689</v>
+      </c>
+    </row>
+    <row r="147" spans="7:8">
       <c r="G147">
         <v>19.199000000000002</v>
       </c>
-    </row>
-    <row r="148" spans="7:7">
+      <c r="H147">
+        <v>1.281413680373215</v>
+      </c>
+    </row>
+    <row r="148" spans="7:8">
       <c r="G148">
         <v>19.299499999999998</v>
       </c>
-    </row>
-    <row r="149" spans="7:7">
+      <c r="H148">
+        <v>1.2879640308758613</v>
+      </c>
+    </row>
+    <row r="149" spans="7:8">
       <c r="G149">
         <v>19.399999999999999</v>
       </c>
-    </row>
-    <row r="150" spans="7:7">
+      <c r="H149">
+        <v>1.2950182544940956</v>
+      </c>
+    </row>
+    <row r="150" spans="7:8">
       <c r="G150">
         <v>19.500399999999999</v>
       </c>
-    </row>
-    <row r="151" spans="7:7">
+      <c r="H150">
+        <v>1.3015686049967417</v>
+      </c>
+    </row>
+    <row r="151" spans="7:8">
       <c r="G151">
         <v>19.600899999999999</v>
       </c>
-    </row>
-    <row r="152" spans="7:7">
+      <c r="H151">
+        <v>1.3083708920571819</v>
+      </c>
+    </row>
+    <row r="152" spans="7:8">
       <c r="G152">
         <v>19.699100000000001</v>
       </c>
-    </row>
-    <row r="153" spans="7:7">
+      <c r="H152">
+        <v>1.314921242559828</v>
+      </c>
+    </row>
+    <row r="153" spans="7:8">
       <c r="G153">
         <v>19.799600000000002</v>
       </c>
-    </row>
-    <row r="154" spans="7:7">
+      <c r="H153">
+        <v>1.3217235296202683</v>
+      </c>
+    </row>
+    <row r="154" spans="7:8">
       <c r="G154">
         <v>19.899999999999999</v>
       </c>
-    </row>
-    <row r="155" spans="7:7">
+      <c r="H154">
+        <v>1.3282738801229146</v>
+      </c>
+    </row>
+    <row r="155" spans="7:8">
       <c r="G155">
         <v>20.000499999999999</v>
+      </c>
+      <c r="H155">
+        <v>1.3333126112787961</v>
       </c>
     </row>
   </sheetData>
